--- a/_static/global/rankrankings/workers_rank_re.xlsx
+++ b/_static/global/rankrankings/workers_rank_re.xlsx
@@ -40,12 +40,12 @@
     <t>Giana</t>
   </si>
   <si>
+    <t>Jewel</t>
+  </si>
+  <si>
     <t>Colleen</t>
   </si>
   <si>
-    <t>Jewel</t>
-  </si>
-  <si>
     <t>Annes</t>
   </si>
   <si>
@@ -64,15 +64,15 @@
     <t>Shaniek</t>
   </si>
   <si>
+    <t>Bri</t>
+  </si>
+  <si>
     <t>Kellie</t>
   </si>
   <si>
     <t>Shadaisia</t>
   </si>
   <si>
-    <t>Bri</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
@@ -88,16 +88,16 @@
     <t>Edosagbe</t>
   </si>
   <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
     <t>Juan</t>
   </si>
   <si>
-    <t>Jamarii</t>
+    <t>Corey</t>
   </si>
   <si>
     <t>Brennan</t>
-  </si>
-  <si>
-    <t>Corey</t>
   </si>
   <si>
     <t>Masuf</t>
@@ -528,7 +528,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>7.321127027097197</v>
+        <v>7.240540192629654</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -554,10 +554,10 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>6.207483813366351</v>
+        <v>6.378978103426058</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -571,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -580,10 +580,10 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>6.144175721310913</v>
+        <v>6.143455313863114</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -606,7 +606,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>5.459786508668073</v>
+        <v>5.419772607443591</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -632,7 +632,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>5.454409174290521</v>
+        <v>5.312796240675778</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -658,7 +658,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>4.43871191678395</v>
+        <v>4.071991992584385</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
@@ -684,7 +684,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>1.344748254705033</v>
+        <v>1.233832614214271</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
@@ -710,7 +710,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>1.185573976477338</v>
+        <v>1.002782814522061</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -736,7 +736,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>0.3853954966149136</v>
+        <v>0.4746561773749075</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
@@ -753,7 +753,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -762,10 +762,10 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>0.1820663129703523</v>
+        <v>0.4664235049697223</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -788,10 +788,10 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>0.05192390385919771</v>
+        <v>0.2827895313987391</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -805,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -814,7 +814,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0.003802371299464424</v>
+        <v>0.27386664857579</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -840,7 +840,7 @@
         <v>32</v>
       </c>
       <c r="F14">
-        <v>13.39831089107569</v>
+        <v>13.45172621041747</v>
       </c>
       <c r="G14" t="s">
         <v>34</v>
@@ -866,7 +866,7 @@
         <v>32</v>
       </c>
       <c r="F15">
-        <v>8.250726125048393</v>
+        <v>8.467383315037575</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="F16">
-        <v>7.299729955053766</v>
+        <v>7.263320786645187</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -918,7 +918,7 @@
         <v>32</v>
       </c>
       <c r="F17">
-        <v>7.128360395512098</v>
+        <v>7.045923228846132</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -944,7 +944,7 @@
         <v>32</v>
       </c>
       <c r="F18">
-        <v>5.236632452486271</v>
+        <v>5.285624560074965</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -970,10 +970,10 @@
         <v>32</v>
       </c>
       <c r="F19">
-        <v>5.035456380598204</v>
+        <v>5.22667163757618</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>6</v>
@@ -987,7 +987,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -996,10 +996,10 @@
         <v>32</v>
       </c>
       <c r="F20">
-        <v>5.022888028469472</v>
+        <v>5.193444245373518</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>7</v>
@@ -1013,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -1022,7 +1022,7 @@
         <v>32</v>
       </c>
       <c r="F21">
-        <v>4.269330618354823</v>
+        <v>4.163691280357252</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -1039,7 +1039,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -1048,7 +1048,7 @@
         <v>32</v>
       </c>
       <c r="F22">
-        <v>4.181247080692733</v>
+        <v>4.093901744365527</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -1074,7 +1074,7 @@
         <v>32</v>
       </c>
       <c r="F23">
-        <v>3.117797833664232</v>
+        <v>3.064644559899139</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -1100,7 +1100,7 @@
         <v>32</v>
       </c>
       <c r="F24">
-        <v>2.287562350550969</v>
+        <v>2.350791450174602</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -1126,7 +1126,7 @@
         <v>32</v>
       </c>
       <c r="F25">
-        <v>2.209996185476621</v>
+        <v>2.331889986248744</v>
       </c>
       <c r="G25" t="s">
         <v>34</v>

--- a/_static/global/rankrankings/workers_rank_re.xlsx
+++ b/_static/global/rankrankings/workers_rank_re.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>level_0</t>
   </si>
@@ -22,6 +22,9 @@
     <t>index</t>
   </si>
   <si>
+    <t>prolificid</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -37,6 +40,78 @@
     <t>re_rank</t>
   </si>
   <si>
+    <t>60bfcf5805c5ae12a546f9f3</t>
+  </si>
+  <si>
+    <t>60b45e9961dd412bfb6780f8</t>
+  </si>
+  <si>
+    <t>5c5882fc5bfe7600011197cb</t>
+  </si>
+  <si>
+    <t>60bd88b8fc436774352f53b9</t>
+  </si>
+  <si>
+    <t>5e96194b0a9fe909389e9f7b</t>
+  </si>
+  <si>
+    <t>60c0e5899d387663c07eb3a4</t>
+  </si>
+  <si>
+    <t>6077db0613ce87b4a62a78f9</t>
+  </si>
+  <si>
+    <t>608b14a312c099ac00b721b6</t>
+  </si>
+  <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
+    <t>5c0e89c6c323400001e6c4a5</t>
+  </si>
+  <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
+    <t>60b091ed11ccda59e3fc7761</t>
+  </si>
+  <si>
+    <t>601d69a993d94008fb2b25dc</t>
+  </si>
+  <si>
+    <t>60c2341fe95d71ee52c043f0</t>
+  </si>
+  <si>
+    <t>5ff8ad350d084e10f500e48a</t>
+  </si>
+  <si>
+    <t>60db4fde6193c50664c9c478</t>
+  </si>
+  <si>
+    <t>5dd671942b033b5ec8bc97b4</t>
+  </si>
+  <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
+    <t>60b322994d0b901954690036</t>
+  </si>
+  <si>
+    <t>5e2522d6b734b47915f88275</t>
+  </si>
+  <si>
+    <t>6088fc724afd5c008db33e9d</t>
+  </si>
+  <si>
+    <t>6097b95056caf5ebb2720002</t>
+  </si>
+  <si>
+    <t>60b83826821417f8e484a207</t>
+  </si>
+  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -55,12 +130,12 @@
     <t>Nansi</t>
   </si>
   <si>
+    <t>Lori</t>
+  </si>
+  <si>
     <t>Khushi</t>
   </si>
   <si>
-    <t>Lori</t>
-  </si>
-  <si>
     <t>Shaniek</t>
   </si>
   <si>
@@ -79,34 +154,34 @@
     <t>Quinterius</t>
   </si>
   <si>
+    <t>Matthew</t>
+  </si>
+  <si>
     <t>Drew</t>
   </si>
   <si>
-    <t>Matthew</t>
-  </si>
-  <si>
     <t>Edosagbe</t>
   </si>
   <si>
+    <t>Juan</t>
+  </si>
+  <si>
     <t>Jamarii</t>
   </si>
   <si>
-    <t>Juan</t>
+    <t>Brennan</t>
   </si>
   <si>
     <t>Corey</t>
   </si>
   <si>
-    <t>Brennan</t>
-  </si>
-  <si>
     <t>Masuf</t>
   </si>
   <si>
+    <t>Damian</t>
+  </si>
+  <si>
     <t>Eli</t>
-  </si>
-  <si>
-    <t>Damian</t>
   </si>
   <si>
     <t>female</t>
@@ -482,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +585,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -522,22 +600,25 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2">
-        <v>7.240540192629654</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2">
+        <v>7.300264937320475</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -548,22 +629,25 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3">
-        <v>6.378978103426058</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>6.476670993744667</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -574,22 +658,25 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4">
-        <v>6.143455313863114</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>6.369967191149581</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -600,22 +687,25 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5">
-        <v>5.419772607443591</v>
-      </c>
-      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="H5">
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>5.068061057111064</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -626,22 +716,25 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6">
-        <v>5.312796240675778</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>5.020468814187423</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -652,22 +745,25 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7">
-        <v>4.071991992584385</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>4.300836668514529</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -675,25 +771,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8">
-        <v>1.233832614214271</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>1.243334033638253</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -701,25 +800,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9">
-        <v>1.002782814522061</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>1.083571972669488</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -730,22 +832,25 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10">
-        <v>0.4746561773749075</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <v>0.4793892001648432</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -756,22 +861,25 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11">
-        <v>0.4664235049697223</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11">
+        <v>0.4192340444739328</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -782,22 +890,25 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12">
-        <v>0.2827895313987391</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>0.2565399071127668</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -808,22 +919,25 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13">
-        <v>0.27386664857579</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>0.2319910726680612</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -834,22 +948,25 @@
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14">
-        <v>13.45172621041747</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <v>13.48524091344236</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -860,22 +977,25 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15">
-        <v>8.467383315037575</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15">
+        <v>8.41655457137187</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -883,25 +1003,28 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16">
-        <v>7.263320786645187</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16">
+        <v>7.329976078078919</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -909,25 +1032,28 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17">
-        <v>7.045923228846132</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17">
+        <v>7.217939142941571</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -938,22 +1064,25 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18">
-        <v>5.285624560074965</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18">
+        <v>5.366656653952606</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -961,25 +1090,28 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19">
-        <v>5.22667163757618</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19">
+        <v>5.23281095267766</v>
+      </c>
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -987,25 +1119,28 @@
         <v>6</v>
       </c>
       <c r="C20">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
       <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20">
-        <v>5.193444245373518</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20">
+        <v>5.099160166839549</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1013,25 +1148,28 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21">
-        <v>4.163691280357252</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21">
+        <v>4.111111164481627</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1039,25 +1177,28 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22">
-        <v>4.093901744365527</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22">
+        <v>4.088873157346726</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1068,22 +1209,25 @@
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23">
-        <v>3.064644559899139</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23">
+        <v>3.326168639869025</v>
+      </c>
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1091,25 +1235,28 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24">
-        <v>2.350791450174602</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24">
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24">
+        <v>2.338825072770427</v>
+      </c>
+      <c r="H24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1117,21 +1264,24 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25">
-        <v>2.331889986248744</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25">
+        <v>2.32406207211523</v>
+      </c>
+      <c r="H25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25">
         <v>12</v>
       </c>
     </row>

--- a/_static/global/rankrankings/workers_rank_re.xlsx
+++ b/_static/global/rankrankings/workers_rank_re.xlsx
@@ -64,30 +64,30 @@
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
     <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
-    <t>6036f9b3b1842f8b659b18c7</t>
-  </si>
-  <si>
-    <t>60d5775a99b502eec8cf56b4</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
     <t>601d69a993d94008fb2b25dc</t>
   </si>
   <si>
+    <t>5ff8ad350d084e10f500e48a</t>
+  </si>
+  <si>
     <t>60c2341fe95d71ee52c043f0</t>
   </si>
   <si>
-    <t>5ff8ad350d084e10f500e48a</t>
-  </si>
-  <si>
     <t>60db4fde6193c50664c9c478</t>
   </si>
   <si>
@@ -97,21 +97,21 @@
     <t>60bf9943e4e04642d4634ecc</t>
   </si>
   <si>
+    <t>5e2522d6b734b47915f88275</t>
+  </si>
+  <si>
     <t>60b322994d0b901954690036</t>
   </si>
   <si>
-    <t>5e2522d6b734b47915f88275</t>
-  </si>
-  <si>
     <t>6088fc724afd5c008db33e9d</t>
   </si>
   <si>
+    <t>60b83826821417f8e484a207</t>
+  </si>
+  <si>
     <t>6097b95056caf5ebb2720002</t>
   </si>
   <si>
-    <t>60b83826821417f8e484a207</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -136,30 +136,30 @@
     <t>Khushi</t>
   </si>
   <si>
+    <t>Shadaisia</t>
+  </si>
+  <si>
+    <t>Kellie</t>
+  </si>
+  <si>
     <t>Shaniek</t>
   </si>
   <si>
     <t>Bri</t>
   </si>
   <si>
-    <t>Kellie</t>
-  </si>
-  <si>
-    <t>Shadaisia</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
     <t>Quinterius</t>
   </si>
   <si>
+    <t>Drew</t>
+  </si>
+  <si>
     <t>Matthew</t>
   </si>
   <si>
-    <t>Drew</t>
-  </si>
-  <si>
     <t>Edosagbe</t>
   </si>
   <si>
@@ -169,19 +169,19 @@
     <t>Jamarii</t>
   </si>
   <si>
+    <t>Corey</t>
+  </si>
+  <si>
     <t>Brennan</t>
   </si>
   <si>
-    <t>Corey</t>
-  </si>
-  <si>
     <t>Masuf</t>
   </si>
   <si>
+    <t>Eli</t>
+  </si>
+  <si>
     <t>Damian</t>
-  </si>
-  <si>
-    <t>Eli</t>
   </si>
   <si>
     <t>female</t>
@@ -609,7 +609,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>7.300264937320475</v>
+        <v>7.360079283446961</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -638,7 +638,7 @@
         <v>56</v>
       </c>
       <c r="G3">
-        <v>6.476670993744667</v>
+        <v>6.358750456454161</v>
       </c>
       <c r="H3" t="s">
         <v>59</v>
@@ -667,7 +667,7 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>6.369967191149581</v>
+        <v>6.017579664918089</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -696,7 +696,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>5.068061057111064</v>
+        <v>5.309718579672998</v>
       </c>
       <c r="H5" t="s">
         <v>60</v>
@@ -725,7 +725,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>5.020468814187423</v>
+        <v>5.244195657518464</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -754,7 +754,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>4.300836668514529</v>
+        <v>4.045026469112039</v>
       </c>
       <c r="H7" t="s">
         <v>60</v>
@@ -783,7 +783,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>1.243334033638253</v>
+        <v>1.242073243576292</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -812,7 +812,7 @@
         <v>56</v>
       </c>
       <c r="G9">
-        <v>1.083571972669488</v>
+        <v>1.014010395470444</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -829,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -841,7 +841,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>0.4793892001648432</v>
+        <v>0.4834459824271087</v>
       </c>
       <c r="H10" t="s">
         <v>59</v>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -870,10 +870,10 @@
         <v>56</v>
       </c>
       <c r="G11">
-        <v>0.4192340444739328</v>
+        <v>0.1753989618967279</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -887,7 +887,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -899,10 +899,10 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>0.2565399071127668</v>
+        <v>0.1348575153764161</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I12">
         <v>11</v>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -928,7 +928,7 @@
         <v>56</v>
       </c>
       <c r="G13">
-        <v>0.2319910726680612</v>
+        <v>0.1140016948445168</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
@@ -957,7 +957,7 @@
         <v>57</v>
       </c>
       <c r="G14">
-        <v>13.48524091344236</v>
+        <v>13.17322371252606</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -986,7 +986,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>8.41655457137187</v>
+        <v>8.25975769155853</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -1003,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1015,7 +1015,7 @@
         <v>57</v>
       </c>
       <c r="G16">
-        <v>7.329976078078919</v>
+        <v>7.198709993617562</v>
       </c>
       <c r="H16" t="s">
         <v>58</v>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1044,7 +1044,7 @@
         <v>57</v>
       </c>
       <c r="G17">
-        <v>7.217939142941571</v>
+        <v>7.013420770724821</v>
       </c>
       <c r="H17" t="s">
         <v>58</v>
@@ -1073,7 +1073,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>5.366656653952606</v>
+        <v>5.30118687809812</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -1102,7 +1102,7 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>5.23281095267766</v>
+        <v>5.217927984380697</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
@@ -1131,7 +1131,7 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.099160166839549</v>
+        <v>5.022934074744907</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1160,7 +1160,7 @@
         <v>57</v>
       </c>
       <c r="G21">
-        <v>4.111111164481627</v>
+        <v>4.346124827430741</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
@@ -1177,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1189,7 +1189,7 @@
         <v>57</v>
       </c>
       <c r="G22">
-        <v>4.088873157346726</v>
+        <v>4.218944548501164</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -1218,7 +1218,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>3.326168639869025</v>
+        <v>3.102299781206951</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -1235,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -1247,10 +1247,10 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>2.338825072770427</v>
+        <v>2.368353172506046</v>
       </c>
       <c r="H24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -1264,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1276,10 +1276,10 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>2.32406207211523</v>
+        <v>2.301699192143767</v>
       </c>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I25">
         <v>12</v>

--- a/_static/global/rankrankings/workers_rank_re.xlsx
+++ b/_static/global/rankrankings/workers_rank_re.xlsx
@@ -43,12 +43,12 @@
     <t>60bfcf5805c5ae12a546f9f3</t>
   </si>
   <si>
+    <t>5c5882fc5bfe7600011197cb</t>
+  </si>
+  <si>
     <t>60b45e9961dd412bfb6780f8</t>
   </si>
   <si>
-    <t>5c5882fc5bfe7600011197cb</t>
-  </si>
-  <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
@@ -64,15 +64,15 @@
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
     <t>60d5775a99b502eec8cf56b4</t>
   </si>
   <si>
     <t>6036f9b3b1842f8b659b18c7</t>
   </si>
   <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
@@ -82,18 +82,18 @@
     <t>601d69a993d94008fb2b25dc</t>
   </si>
   <si>
+    <t>60c2341fe95d71ee52c043f0</t>
+  </si>
+  <si>
     <t>5ff8ad350d084e10f500e48a</t>
   </si>
   <si>
-    <t>60c2341fe95d71ee52c043f0</t>
+    <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
     <t>60db4fde6193c50664c9c478</t>
   </si>
   <si>
-    <t>5dd671942b033b5ec8bc97b4</t>
-  </si>
-  <si>
     <t>60bf9943e4e04642d4634ecc</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>Giana</t>
   </si>
   <si>
+    <t>Colleen</t>
+  </si>
+  <si>
     <t>Jewel</t>
   </si>
   <si>
-    <t>Colleen</t>
-  </si>
-  <si>
     <t>Annes</t>
   </si>
   <si>
@@ -136,15 +136,15 @@
     <t>Khushi</t>
   </si>
   <si>
+    <t>Shaniek</t>
+  </si>
+  <si>
     <t>Shadaisia</t>
   </si>
   <si>
     <t>Kellie</t>
   </si>
   <si>
-    <t>Shaniek</t>
-  </si>
-  <si>
     <t>Bri</t>
   </si>
   <si>
@@ -154,16 +154,16 @@
     <t>Quinterius</t>
   </si>
   <si>
+    <t>Matthew</t>
+  </si>
+  <si>
     <t>Drew</t>
   </si>
   <si>
-    <t>Matthew</t>
+    <t>Juan</t>
   </si>
   <si>
     <t>Edosagbe</t>
-  </si>
-  <si>
-    <t>Juan</t>
   </si>
   <si>
     <t>Jamarii</t>
@@ -609,7 +609,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>7.360079283446961</v>
+        <v>7.311265211180753</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -638,10 +638,10 @@
         <v>56</v>
       </c>
       <c r="G3">
-        <v>6.358750456454161</v>
+        <v>6.075952185643782</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -667,10 +667,10 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>6.017579664918089</v>
+        <v>6.068676626552405</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -696,7 +696,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>5.309718579672998</v>
+        <v>5.477047804629725</v>
       </c>
       <c r="H5" t="s">
         <v>60</v>
@@ -725,7 +725,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>5.244195657518464</v>
+        <v>5.249471932023906</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -754,7 +754,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>4.045026469112039</v>
+        <v>4.260356005502568</v>
       </c>
       <c r="H7" t="s">
         <v>60</v>
@@ -783,7 +783,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>1.242073243576292</v>
+        <v>1.260598627945096</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -812,7 +812,7 @@
         <v>56</v>
       </c>
       <c r="G9">
-        <v>1.014010395470444</v>
+        <v>1.185192640848691</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -829,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -841,7 +841,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>0.4834459824271087</v>
+        <v>0.3346982378612178</v>
       </c>
       <c r="H10" t="s">
         <v>59</v>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -870,10 +870,10 @@
         <v>56</v>
       </c>
       <c r="G11">
-        <v>0.1753989618967279</v>
+        <v>0.26099946291021</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -887,7 +887,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -899,10 +899,10 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>0.1348575153764161</v>
+        <v>0.07698541627100014</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12">
         <v>11</v>
@@ -928,7 +928,7 @@
         <v>56</v>
       </c>
       <c r="G13">
-        <v>0.1140016948445168</v>
+        <v>0.04919117767745862</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
@@ -957,7 +957,7 @@
         <v>57</v>
       </c>
       <c r="G14">
-        <v>13.17322371252606</v>
+        <v>13.19982871425305</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -986,7 +986,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>8.25975769155853</v>
+        <v>8.081433205567341</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -1003,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1015,7 +1015,7 @@
         <v>57</v>
       </c>
       <c r="G16">
-        <v>7.198709993617562</v>
+        <v>7.048241805590385</v>
       </c>
       <c r="H16" t="s">
         <v>58</v>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1044,7 +1044,7 @@
         <v>57</v>
       </c>
       <c r="G17">
-        <v>7.013420770724821</v>
+        <v>7.000947600168775</v>
       </c>
       <c r="H17" t="s">
         <v>58</v>
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1073,10 +1073,10 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>5.30118687809812</v>
+        <v>5.239313832273305</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1102,10 +1102,10 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>5.217927984380697</v>
+        <v>5.186302527479196</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -1131,7 +1131,7 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.022934074744907</v>
+        <v>5.018452747422359</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
@@ -1160,7 +1160,7 @@
         <v>57</v>
       </c>
       <c r="G21">
-        <v>4.346124827430741</v>
+        <v>4.155549573790759</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
@@ -1189,7 +1189,7 @@
         <v>57</v>
       </c>
       <c r="G22">
-        <v>4.218944548501164</v>
+        <v>4.034175108618071</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -1218,7 +1218,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>3.102299781206951</v>
+        <v>3.262000135003892</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -1247,7 +1247,7 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>2.368353172506046</v>
+        <v>2.30063950806506</v>
       </c>
       <c r="H24" t="s">
         <v>58</v>
@@ -1276,7 +1276,7 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>2.301699192143767</v>
+        <v>2.244526961475056</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>

--- a/_static/global/rankrankings/workers_rank_re.xlsx
+++ b/_static/global/rankrankings/workers_rank_re.xlsx
@@ -61,12 +61,12 @@
     <t>60863a15760523386e761cfb</t>
   </si>
   <si>
+    <t>60bd88b8fc436774352f53b9</t>
+  </si>
+  <si>
     <t>5c27de12a2b00a00018b2c16</t>
   </si>
   <si>
-    <t>60bd88b8fc436774352f53b9</t>
-  </si>
-  <si>
     <t>60b7cd4be2d4cc6bb252e016</t>
   </si>
   <si>
@@ -133,10 +133,10 @@
     <t>Roshni</t>
   </si>
   <si>
+    <t>Annes</t>
+  </si>
+  <si>
     <t>Ankai</t>
-  </si>
-  <si>
-    <t>Annes</t>
   </si>
   <si>
     <t>Chris</t>
@@ -603,7 +603,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>11.08336583276651</v>
+        <v>11.12356095231806</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -632,7 +632,7 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>10.1129397911456</v>
+        <v>10.07657103797102</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -661,7 +661,7 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>8.12245043575793</v>
+        <v>8.469824362969149</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -690,7 +690,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>8.062732460445222</v>
+        <v>8.252431536799262</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
@@ -719,7 +719,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>7.066968789479077</v>
+        <v>7.094657342882389</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -748,7 +748,7 @@
         <v>57</v>
       </c>
       <c r="G7">
-        <v>6.406513611900706</v>
+        <v>6.351992923050718</v>
       </c>
       <c r="H7" t="s">
         <v>58</v>
@@ -777,7 +777,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>6.20631595445323</v>
+        <v>6.111943368614604</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -794,7 +794,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -803,10 +803,10 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9">
-        <v>5.183922735700961</v>
+        <v>5.465857846036377</v>
       </c>
       <c r="H9" t="s">
         <v>58</v>
@@ -823,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -832,10 +832,10 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10">
-        <v>5.10986712038344</v>
+        <v>5.411049145544538</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
@@ -864,7 +864,7 @@
         <v>57</v>
       </c>
       <c r="G11">
-        <v>4.043609040848105</v>
+        <v>4.011565163053068</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -893,7 +893,7 @@
         <v>57</v>
       </c>
       <c r="G12">
-        <v>2.406924721161797</v>
+        <v>2.037811163075423</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
@@ -922,7 +922,7 @@
         <v>57</v>
       </c>
       <c r="G13">
-        <v>0.4985343868979834</v>
+        <v>0.2234880371687213</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
@@ -951,7 +951,7 @@
         <v>56</v>
       </c>
       <c r="G14">
-        <v>8.445010300492228</v>
+        <v>8.487299773058886</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -980,7 +980,7 @@
         <v>56</v>
       </c>
       <c r="G15">
-        <v>8.242180920328682</v>
+        <v>8.17703893189862</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -1009,7 +1009,7 @@
         <v>56</v>
       </c>
       <c r="G16">
-        <v>7.315718197973071</v>
+        <v>7.389685286561035</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
@@ -1038,7 +1038,7 @@
         <v>57</v>
       </c>
       <c r="G17">
-        <v>7.012016103593139</v>
+        <v>7.23768709675885</v>
       </c>
       <c r="H17" t="s">
         <v>59</v>
@@ -1067,7 +1067,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>6.280972842109311</v>
+        <v>6.343048961041616</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -1096,7 +1096,7 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>6.151405377206133</v>
+        <v>6.040248810237871</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -1125,7 +1125,7 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.17695179493024</v>
+        <v>5.132481009527025</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
@@ -1154,7 +1154,7 @@
         <v>56</v>
       </c>
       <c r="G21">
-        <v>3.196030566073004</v>
+        <v>3.39083832478149</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
@@ -1183,7 +1183,7 @@
         <v>56</v>
       </c>
       <c r="G22">
-        <v>3.1851649194107</v>
+        <v>3.318523148442117</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
@@ -1212,7 +1212,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>2.106973935809581</v>
+        <v>2.176093329063497</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
@@ -1241,7 +1241,7 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>1.425983900189286</v>
+        <v>1.474100674863718</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -1270,7 +1270,7 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>0.4777009288202284</v>
+        <v>0.05652031328557322</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>

--- a/_static/global/rankrankings/workers_rank_re.xlsx
+++ b/_static/global/rankrankings/workers_rank_re.xlsx
@@ -55,18 +55,18 @@
     <t>60186dc2cc1aa8103499603a</t>
   </si>
   <si>
+    <t>60863a15760523386e761cfb</t>
+  </si>
+  <si>
     <t>5697d4ae7183b8000d0fc201</t>
   </si>
   <si>
-    <t>60863a15760523386e761cfb</t>
+    <t>5c27de12a2b00a00018b2c16</t>
   </si>
   <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
-    <t>5c27de12a2b00a00018b2c16</t>
-  </si>
-  <si>
     <t>60b7cd4be2d4cc6bb252e016</t>
   </si>
   <si>
@@ -76,33 +76,33 @@
     <t>60b76ee2219ac1ce25ccea43</t>
   </si>
   <si>
+    <t>6024c18b094ac71dd93f4f5a</t>
+  </si>
+  <si>
     <t>60778ed0fde3e9c3a96f1d11</t>
   </si>
   <si>
-    <t>6024c18b094ac71dd93f4f5a</t>
-  </si>
-  <si>
     <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
     <t>60ba8ba51a5e0a105396888a</t>
   </si>
   <si>
+    <t>5eeaa065c7acf61c4322f6d9</t>
+  </si>
+  <si>
     <t>5f5ea8227fa75676f56f9276</t>
   </si>
   <si>
-    <t>5eeaa065c7acf61c4322f6d9</t>
-  </si>
-  <si>
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>5e0adc8f4cac6834756db412</t>
+  </si>
+  <si>
     <t>5e706891c396cc64388ef760</t>
   </si>
   <si>
-    <t>5e0adc8f4cac6834756db412</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
@@ -127,18 +127,18 @@
     <t>Emily</t>
   </si>
   <si>
+    <t>Roshni</t>
+  </si>
+  <si>
     <t>Tu</t>
   </si>
   <si>
-    <t>Roshni</t>
+    <t>Ankai</t>
   </si>
   <si>
     <t>Annes</t>
   </si>
   <si>
-    <t>Ankai</t>
-  </si>
-  <si>
     <t>Chris</t>
   </si>
   <si>
@@ -148,31 +148,31 @@
     <t>Richie</t>
   </si>
   <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t>Melissa</t>
   </si>
   <si>
-    <t>Katherine</t>
-  </si>
-  <si>
     <t>Valeria</t>
   </si>
   <si>
     <t>Alfredo</t>
   </si>
   <si>
+    <t>Yonifredy</t>
+  </si>
+  <si>
     <t>Carlos</t>
   </si>
   <si>
-    <t>Yonifredy</t>
-  </si>
-  <si>
     <t>Juan</t>
   </si>
   <si>
+    <t>Mary</t>
+  </si>
+  <si>
     <t>Maria</t>
-  </si>
-  <si>
-    <t>Mary</t>
   </si>
   <si>
     <t>Josue</t>
@@ -603,7 +603,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>11.12356095231806</v>
+        <v>11.45740717551576</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -632,7 +632,7 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>10.07657103797102</v>
+        <v>10.08421220545006</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -661,7 +661,7 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>8.469824362969149</v>
+        <v>8.474440037169567</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -690,7 +690,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>8.252431536799262</v>
+        <v>8.469079889133782</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
@@ -719,7 +719,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>7.094657342882389</v>
+        <v>7.167398355129854</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -745,10 +745,10 @@
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7">
-        <v>6.351992923050718</v>
+        <v>6.194924391488313</v>
       </c>
       <c r="H7" t="s">
         <v>58</v>
@@ -765,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -774,10 +774,10 @@
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8">
-        <v>6.111943368614604</v>
+        <v>6.053014121671316</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -794,7 +794,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -803,10 +803,10 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9">
-        <v>5.465857846036377</v>
+        <v>5.405704693608066</v>
       </c>
       <c r="H9" t="s">
         <v>58</v>
@@ -823,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -832,10 +832,10 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10">
-        <v>5.411049145544538</v>
+        <v>5.190617474046819</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
@@ -864,7 +864,7 @@
         <v>57</v>
       </c>
       <c r="G11">
-        <v>4.011565163053068</v>
+        <v>4.0828279198773</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -893,7 +893,7 @@
         <v>57</v>
       </c>
       <c r="G12">
-        <v>2.037811163075423</v>
+        <v>2.154970194355574</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
@@ -922,7 +922,7 @@
         <v>57</v>
       </c>
       <c r="G13">
-        <v>0.2234880371687213</v>
+        <v>0.2602112850569155</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -951,7 +951,7 @@
         <v>56</v>
       </c>
       <c r="G14">
-        <v>8.487299773058886</v>
+        <v>8.316648944792245</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -980,7 +980,7 @@
         <v>56</v>
       </c>
       <c r="G15">
-        <v>8.17703893189862</v>
+        <v>8.023344841524992</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -1009,7 +1009,7 @@
         <v>56</v>
       </c>
       <c r="G16">
-        <v>7.389685286561035</v>
+        <v>7.429443214079729</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
@@ -1038,7 +1038,7 @@
         <v>57</v>
       </c>
       <c r="G17">
-        <v>7.23768709675885</v>
+        <v>7.094459853851288</v>
       </c>
       <c r="H17" t="s">
         <v>59</v>
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1067,7 +1067,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>6.343048961041616</v>
+        <v>6.304187637973969</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -1084,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1096,7 +1096,7 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>6.040248810237871</v>
+        <v>6.19077550199683</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -1125,7 +1125,7 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.132481009527025</v>
+        <v>5.065205973220809</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1154,7 +1154,7 @@
         <v>56</v>
       </c>
       <c r="G21">
-        <v>3.39083832478149</v>
+        <v>3.358111939047832</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
@@ -1171,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1183,7 +1183,7 @@
         <v>56</v>
       </c>
       <c r="G22">
-        <v>3.318523148442117</v>
+        <v>3.344821734808749</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
@@ -1212,7 +1212,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>2.176093329063497</v>
+        <v>2.475630392065158</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
@@ -1241,7 +1241,7 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>1.474100674863718</v>
+        <v>1.281029176420817</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -1270,7 +1270,7 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>0.05652031328557322</v>
+        <v>0.379747773547242</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>

--- a/_static/global/rankrankings/workers_rank_re.xlsx
+++ b/_static/global/rankrankings/workers_rank_re.xlsx
@@ -43,12 +43,12 @@
     <t>60bfcf5805c5ae12a546f9f3</t>
   </si>
   <si>
+    <t>60b45e9961dd412bfb6780f8</t>
+  </si>
+  <si>
     <t>5c5882fc5bfe7600011197cb</t>
   </si>
   <si>
-    <t>60b45e9961dd412bfb6780f8</t>
-  </si>
-  <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
@@ -64,18 +64,18 @@
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
+    <t>5c0e89c6c323400001e6c4a5</t>
+  </si>
+  <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
     <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
-    <t>60d5775a99b502eec8cf56b4</t>
-  </si>
-  <si>
-    <t>6036f9b3b1842f8b659b18c7</t>
-  </si>
-  <si>
-    <t>5c0e89c6c323400001e6c4a5</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -88,21 +88,21 @@
     <t>5ff8ad350d084e10f500e48a</t>
   </si>
   <si>
+    <t>60db4fde6193c50664c9c478</t>
+  </si>
+  <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
-    <t>60db4fde6193c50664c9c478</t>
-  </si>
-  <si>
-    <t>60bf9943e4e04642d4634ecc</t>
+    <t>60b322994d0b901954690036</t>
   </si>
   <si>
     <t>5e2522d6b734b47915f88275</t>
   </si>
   <si>
-    <t>60b322994d0b901954690036</t>
-  </si>
-  <si>
     <t>6088fc724afd5c008db33e9d</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>Giana</t>
   </si>
   <si>
+    <t>Jewel</t>
+  </si>
+  <si>
     <t>Colleen</t>
   </si>
   <si>
-    <t>Jewel</t>
-  </si>
-  <si>
     <t>Annes</t>
   </si>
   <si>
@@ -136,18 +136,18 @@
     <t>Khushi</t>
   </si>
   <si>
+    <t>Kellie</t>
+  </si>
+  <si>
+    <t>Bri</t>
+  </si>
+  <si>
+    <t>Shadaisia</t>
+  </si>
+  <si>
     <t>Shaniek</t>
   </si>
   <si>
-    <t>Shadaisia</t>
-  </si>
-  <si>
-    <t>Kellie</t>
-  </si>
-  <si>
-    <t>Bri</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
@@ -160,19 +160,19 @@
     <t>Drew</t>
   </si>
   <si>
+    <t>Edosagbe</t>
+  </si>
+  <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
     <t>Juan</t>
   </si>
   <si>
-    <t>Edosagbe</t>
-  </si>
-  <si>
-    <t>Jamarii</t>
+    <t>Brennan</t>
   </si>
   <si>
     <t>Corey</t>
-  </si>
-  <si>
-    <t>Brennan</t>
   </si>
   <si>
     <t>Masuf</t>
@@ -609,7 +609,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>7.311265211180753</v>
+        <v>7.186737775649103</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -638,10 +638,10 @@
         <v>56</v>
       </c>
       <c r="G3">
-        <v>6.075952185643782</v>
+        <v>6.491841461046875</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -667,10 +667,10 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>6.068676626552405</v>
+        <v>6.098775820819761</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -696,7 +696,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>5.477047804629725</v>
+        <v>5.03843188797754</v>
       </c>
       <c r="H5" t="s">
         <v>60</v>
@@ -725,7 +725,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>5.249471932023906</v>
+        <v>5.020761003118488</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -754,7 +754,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>4.260356005502568</v>
+        <v>4.239120605821088</v>
       </c>
       <c r="H7" t="s">
         <v>60</v>
@@ -783,7 +783,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>1.260598627945096</v>
+        <v>1.248319253184411</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -812,7 +812,7 @@
         <v>56</v>
       </c>
       <c r="G9">
-        <v>1.185192640848691</v>
+        <v>1.073514296423548</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -829,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -841,10 +841,10 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>0.3346982378612178</v>
+        <v>0.4217658868825644</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -870,7 +870,7 @@
         <v>56</v>
       </c>
       <c r="G11">
-        <v>0.26099946291021</v>
+        <v>0.4004490700212808</v>
       </c>
       <c r="H11" t="s">
         <v>59</v>
@@ -887,7 +887,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -899,10 +899,10 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>0.07698541627100014</v>
+        <v>0.3953773248513697</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I12">
         <v>11</v>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -928,7 +928,7 @@
         <v>56</v>
       </c>
       <c r="G13">
-        <v>0.04919117767745862</v>
+        <v>0.1805031549777598</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
@@ -957,7 +957,7 @@
         <v>57</v>
       </c>
       <c r="G14">
-        <v>13.19982871425305</v>
+        <v>13.04325402792447</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -986,7 +986,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>8.081433205567341</v>
+        <v>8.342377812971202</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -1015,7 +1015,7 @@
         <v>57</v>
       </c>
       <c r="G16">
-        <v>7.048241805590385</v>
+        <v>7.489472321657063</v>
       </c>
       <c r="H16" t="s">
         <v>58</v>
@@ -1044,7 +1044,7 @@
         <v>57</v>
       </c>
       <c r="G17">
-        <v>7.000947600168775</v>
+        <v>7.219432926815826</v>
       </c>
       <c r="H17" t="s">
         <v>58</v>
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1073,10 +1073,10 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>5.239313832273305</v>
+        <v>5.404956080902719</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1102,7 +1102,7 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>5.186302527479196</v>
+        <v>5.203546488046102</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1131,10 +1131,10 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.018452747422359</v>
+        <v>5.194694186643499</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1160,7 +1160,7 @@
         <v>57</v>
       </c>
       <c r="G21">
-        <v>4.155549573790759</v>
+        <v>4.334666484926464</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
@@ -1177,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1189,7 +1189,7 @@
         <v>57</v>
       </c>
       <c r="G22">
-        <v>4.034175108618071</v>
+        <v>4.178693876440433</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -1218,7 +1218,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>3.262000135003892</v>
+        <v>3.419194189605884</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -1247,7 +1247,7 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>2.30063950806506</v>
+        <v>2.385885516067507</v>
       </c>
       <c r="H24" t="s">
         <v>58</v>
@@ -1276,7 +1276,7 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>2.244526961475056</v>
+        <v>2.223286854337817</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>

--- a/_static/global/rankrankings/workers_rank_re.xlsx
+++ b/_static/global/rankrankings/workers_rank_re.xlsx
@@ -46,12 +46,12 @@
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
+    <t>5f2c1a97a6809c060fec8820</t>
+  </si>
+  <si>
     <t>60a71d27a66fac796ad4de6f</t>
   </si>
   <si>
-    <t>5f2c1a97a6809c060fec8820</t>
-  </si>
-  <si>
     <t>60186dc2cc1aa8103499603a</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>60778ed0fde3e9c3a96f1d11</t>
   </si>
   <si>
+    <t>60ba8ba51a5e0a105396888a</t>
+  </si>
+  <si>
     <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
-    <t>60ba8ba51a5e0a105396888a</t>
-  </si>
-  <si>
     <t>5eeaa065c7acf61c4322f6d9</t>
   </si>
   <si>
@@ -97,12 +97,12 @@
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>5e706891c396cc64388ef760</t>
+  </si>
+  <si>
     <t>5e0adc8f4cac6834756db412</t>
   </si>
   <si>
-    <t>5e706891c396cc64388ef760</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
@@ -118,12 +118,12 @@
     <t>Aalap</t>
   </si>
   <si>
+    <t>Maggie</t>
+  </si>
+  <si>
     <t>Jennifer</t>
   </si>
   <si>
-    <t>Maggie</t>
-  </si>
-  <si>
     <t>Emily</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>Melissa</t>
   </si>
   <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
     <t>Valeria</t>
   </si>
   <si>
-    <t>Alfredo</t>
-  </si>
-  <si>
     <t>Yonifredy</t>
   </si>
   <si>
@@ -169,10 +169,10 @@
     <t>Juan</t>
   </si>
   <si>
+    <t>Maria</t>
+  </si>
+  <si>
     <t>Mary</t>
-  </si>
-  <si>
-    <t>Maria</t>
   </si>
   <si>
     <t>Josue</t>
@@ -603,7 +603,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>11.45740717551576</v>
+        <v>11.35146450363736</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -632,7 +632,7 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>10.08421220545006</v>
+        <v>10.46509312749224</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -661,7 +661,7 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>8.474440037169567</v>
+        <v>8.345780257992518</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -690,7 +690,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>8.469079889133782</v>
+        <v>8.335815743434177</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
@@ -719,7 +719,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>7.167398355129854</v>
+        <v>7.149319585641714</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -748,7 +748,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>6.194924391488313</v>
+        <v>6.428054772178267</v>
       </c>
       <c r="H7" t="s">
         <v>58</v>
@@ -777,7 +777,7 @@
         <v>57</v>
       </c>
       <c r="G8">
-        <v>6.053014121671316</v>
+        <v>6.387792560901622</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -806,7 +806,7 @@
         <v>57</v>
       </c>
       <c r="G9">
-        <v>5.405704693608066</v>
+        <v>5.358859522459975</v>
       </c>
       <c r="H9" t="s">
         <v>58</v>
@@ -835,7 +835,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>5.190617474046819</v>
+        <v>5.046880051605173</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
@@ -864,7 +864,7 @@
         <v>57</v>
       </c>
       <c r="G11">
-        <v>4.0828279198773</v>
+        <v>4.123973324417245</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -893,7 +893,7 @@
         <v>57</v>
       </c>
       <c r="G12">
-        <v>2.154970194355574</v>
+        <v>2.400210451344222</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
@@ -922,7 +922,7 @@
         <v>57</v>
       </c>
       <c r="G13">
-        <v>0.2602112850569155</v>
+        <v>0.1240641252646651</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
@@ -951,7 +951,7 @@
         <v>56</v>
       </c>
       <c r="G14">
-        <v>8.316648944792245</v>
+        <v>8.43712372573634</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -980,7 +980,7 @@
         <v>56</v>
       </c>
       <c r="G15">
-        <v>8.023344841524992</v>
+        <v>8.085171174491482</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1006,10 +1006,10 @@
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16">
-        <v>7.429443214079729</v>
+        <v>7.483015296297952</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1035,10 +1035,10 @@
         <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17">
-        <v>7.094459853851288</v>
+        <v>7.18543091573438</v>
       </c>
       <c r="H17" t="s">
         <v>59</v>
@@ -1067,7 +1067,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>6.304187637973969</v>
+        <v>6.391489871176138</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -1096,7 +1096,7 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>6.19077550199683</v>
+        <v>6.387011644639443</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -1125,7 +1125,7 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.065205973220809</v>
+        <v>5.012348235563821</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1154,7 +1154,7 @@
         <v>56</v>
       </c>
       <c r="G21">
-        <v>3.358111939047832</v>
+        <v>3.142757349846526</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
@@ -1171,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1183,7 +1183,7 @@
         <v>56</v>
       </c>
       <c r="G22">
-        <v>3.344821734808749</v>
+        <v>3.037402404511541</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
@@ -1212,7 +1212,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>2.475630392065158</v>
+        <v>2.344227293246886</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
@@ -1241,7 +1241,7 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>1.281029176420817</v>
+        <v>1.337899327810482</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -1270,7 +1270,7 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>0.379747773547242</v>
+        <v>0.002543171126171584</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>

--- a/_static/global/rankrankings/workers_rank_re.xlsx
+++ b/_static/global/rankrankings/workers_rank_re.xlsx
@@ -43,18 +43,18 @@
     <t>60bfcf5805c5ae12a546f9f3</t>
   </si>
   <si>
+    <t>5c5882fc5bfe7600011197cb</t>
+  </si>
+  <si>
     <t>60b45e9961dd412bfb6780f8</t>
   </si>
   <si>
-    <t>5c5882fc5bfe7600011197cb</t>
+    <t>5e96194b0a9fe909389e9f7b</t>
   </si>
   <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
-    <t>5e96194b0a9fe909389e9f7b</t>
-  </si>
-  <si>
     <t>60c0e5899d387663c07eb3a4</t>
   </si>
   <si>
@@ -70,12 +70,12 @@
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
     <t>60d5775a99b502eec8cf56b4</t>
   </si>
   <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -88,45 +88,45 @@
     <t>5ff8ad350d084e10f500e48a</t>
   </si>
   <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
+    <t>5dd671942b033b5ec8bc97b4</t>
+  </si>
+  <si>
     <t>60db4fde6193c50664c9c478</t>
   </si>
   <si>
-    <t>60bf9943e4e04642d4634ecc</t>
-  </si>
-  <si>
-    <t>5dd671942b033b5ec8bc97b4</t>
+    <t>5e2522d6b734b47915f88275</t>
   </si>
   <si>
     <t>60b322994d0b901954690036</t>
   </si>
   <si>
-    <t>5e2522d6b734b47915f88275</t>
-  </si>
-  <si>
     <t>6088fc724afd5c008db33e9d</t>
   </si>
   <si>
+    <t>6097b95056caf5ebb2720002</t>
+  </si>
+  <si>
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
-    <t>6097b95056caf5ebb2720002</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
+    <t>Colleen</t>
+  </si>
+  <si>
     <t>Jewel</t>
   </si>
   <si>
-    <t>Colleen</t>
+    <t>Tina</t>
   </si>
   <si>
     <t>Annes</t>
   </si>
   <si>
-    <t>Tina</t>
-  </si>
-  <si>
     <t>Nansi</t>
   </si>
   <si>
@@ -142,12 +142,12 @@
     <t>Bri</t>
   </si>
   <si>
+    <t>Shaniek</t>
+  </si>
+  <si>
     <t>Shadaisia</t>
   </si>
   <si>
-    <t>Shaniek</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
@@ -160,28 +160,28 @@
     <t>Drew</t>
   </si>
   <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
     <t>Edosagbe</t>
   </si>
   <si>
-    <t>Jamarii</t>
-  </si>
-  <si>
-    <t>Juan</t>
+    <t>Corey</t>
   </si>
   <si>
     <t>Brennan</t>
   </si>
   <si>
-    <t>Corey</t>
-  </si>
-  <si>
     <t>Masuf</t>
   </si>
   <si>
+    <t>Damian</t>
+  </si>
+  <si>
     <t>Eli</t>
-  </si>
-  <si>
-    <t>Damian</t>
   </si>
   <si>
     <t>female</t>
@@ -609,7 +609,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>7.186737775649103</v>
+        <v>7.39000491208574</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -638,10 +638,10 @@
         <v>56</v>
       </c>
       <c r="G3">
-        <v>6.491841461046875</v>
+        <v>6.091303748649244</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -667,10 +667,10 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>6.098775820819761</v>
+        <v>6.07244745832581</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -696,10 +696,10 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>5.03843188797754</v>
+        <v>5.476255900907384</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -725,10 +725,10 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>5.020761003118488</v>
+        <v>5.199586145078674</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -754,7 +754,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>4.239120605821088</v>
+        <v>4.182434273974512</v>
       </c>
       <c r="H7" t="s">
         <v>60</v>
@@ -783,7 +783,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>1.248319253184411</v>
+        <v>1.405244066240008</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -812,7 +812,7 @@
         <v>56</v>
       </c>
       <c r="G9">
-        <v>1.073514296423548</v>
+        <v>1.285989741820513</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -841,7 +841,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>0.4217658868825644</v>
+        <v>0.4301310047900727</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
@@ -870,7 +870,7 @@
         <v>56</v>
       </c>
       <c r="G11">
-        <v>0.4004490700212808</v>
+        <v>0.3677338533072753</v>
       </c>
       <c r="H11" t="s">
         <v>59</v>
@@ -887,7 +887,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -899,7 +899,7 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>0.3953773248513697</v>
+        <v>0.2397686769137523</v>
       </c>
       <c r="H12" t="s">
         <v>59</v>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -928,7 +928,7 @@
         <v>56</v>
       </c>
       <c r="G13">
-        <v>0.1805031549777598</v>
+        <v>0.2362855029629706</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
@@ -957,7 +957,7 @@
         <v>57</v>
       </c>
       <c r="G14">
-        <v>13.04325402792447</v>
+        <v>13.08405170480421</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -986,7 +986,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>8.342377812971202</v>
+        <v>8.317598354541474</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -1015,7 +1015,7 @@
         <v>57</v>
       </c>
       <c r="G16">
-        <v>7.489472321657063</v>
+        <v>7.382070019746715</v>
       </c>
       <c r="H16" t="s">
         <v>58</v>
@@ -1044,7 +1044,7 @@
         <v>57</v>
       </c>
       <c r="G17">
-        <v>7.219432926815826</v>
+        <v>7.27978505289396</v>
       </c>
       <c r="H17" t="s">
         <v>58</v>
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1073,7 +1073,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>5.404956080902719</v>
+        <v>5.430038462157364</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1102,10 +1102,10 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>5.203546488046102</v>
+        <v>5.411470426993446</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1131,10 +1131,10 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.194694186643499</v>
+        <v>5.05463621270477</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1160,7 +1160,7 @@
         <v>57</v>
       </c>
       <c r="G21">
-        <v>4.334666484926464</v>
+        <v>4.430868679986358</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
@@ -1177,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1189,7 +1189,7 @@
         <v>57</v>
       </c>
       <c r="G22">
-        <v>4.178693876440433</v>
+        <v>4.412626648038093</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -1218,7 +1218,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>3.419194189605884</v>
+        <v>3.327095999247362</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -1235,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -1247,10 +1247,10 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>2.385885516067507</v>
+        <v>2.26493513038394</v>
       </c>
       <c r="H24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -1264,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1276,10 +1276,10 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>2.223286854337817</v>
+        <v>2.202334476874346</v>
       </c>
       <c r="H25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I25">
         <v>12</v>

--- a/_static/global/rankrankings/workers_rank_re.xlsx
+++ b/_static/global/rankrankings/workers_rank_re.xlsx
@@ -64,18 +64,18 @@
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
+    <t>5c0e89c6c323400001e6c4a5</t>
+  </si>
+  <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
     <t>6036f9b3b1842f8b659b18c7</t>
   </si>
   <si>
-    <t>5c0e89c6c323400001e6c4a5</t>
-  </si>
-  <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
-    <t>60d5775a99b502eec8cf56b4</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>60bf9943e4e04642d4634ecc</t>
   </si>
   <si>
+    <t>60db4fde6193c50664c9c478</t>
+  </si>
+  <si>
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
-    <t>60db4fde6193c50664c9c478</t>
-  </si>
-  <si>
     <t>5e2522d6b734b47915f88275</t>
   </si>
   <si>
@@ -106,12 +106,12 @@
     <t>6088fc724afd5c008db33e9d</t>
   </si>
   <si>
+    <t>60b83826821417f8e484a207</t>
+  </si>
+  <si>
     <t>6097b95056caf5ebb2720002</t>
   </si>
   <si>
-    <t>60b83826821417f8e484a207</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -136,18 +136,18 @@
     <t>Khushi</t>
   </si>
   <si>
+    <t>Bri</t>
+  </si>
+  <si>
+    <t>Shadaisia</t>
+  </si>
+  <si>
+    <t>Shaniek</t>
+  </si>
+  <si>
     <t>Kellie</t>
   </si>
   <si>
-    <t>Bri</t>
-  </si>
-  <si>
-    <t>Shaniek</t>
-  </si>
-  <si>
-    <t>Shadaisia</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>Jamarii</t>
   </si>
   <si>
+    <t>Edosagbe</t>
+  </si>
+  <si>
     <t>Juan</t>
   </si>
   <si>
-    <t>Edosagbe</t>
-  </si>
-  <si>
     <t>Corey</t>
   </si>
   <si>
@@ -178,10 +178,10 @@
     <t>Masuf</t>
   </si>
   <si>
+    <t>Eli</t>
+  </si>
+  <si>
     <t>Damian</t>
-  </si>
-  <si>
-    <t>Eli</t>
   </si>
   <si>
     <t>female</t>
@@ -609,7 +609,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>7.39000491208574</v>
+        <v>7.326165517881154</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -638,7 +638,7 @@
         <v>56</v>
       </c>
       <c r="G3">
-        <v>6.091303748649244</v>
+        <v>6.035906762210042</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -667,7 +667,7 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>6.07244745832581</v>
+        <v>6.027117691378983</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
@@ -696,7 +696,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>5.476255900907384</v>
+        <v>5.244593786151905</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
@@ -725,7 +725,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>5.199586145078674</v>
+        <v>5.10415078822819</v>
       </c>
       <c r="H6" t="s">
         <v>60</v>
@@ -754,7 +754,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>4.182434273974512</v>
+        <v>4.080915110249717</v>
       </c>
       <c r="H7" t="s">
         <v>60</v>
@@ -783,7 +783,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>1.405244066240008</v>
+        <v>1.127328457611293</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -812,7 +812,7 @@
         <v>56</v>
       </c>
       <c r="G9">
-        <v>1.285989741820513</v>
+        <v>1.090887131911884</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -829,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -841,10 +841,10 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>0.4301310047900727</v>
+        <v>0.434968325099591</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -870,7 +870,7 @@
         <v>56</v>
       </c>
       <c r="G11">
-        <v>0.3677338533072753</v>
+        <v>0.2911261319324809</v>
       </c>
       <c r="H11" t="s">
         <v>59</v>
@@ -899,7 +899,7 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>0.2397686769137523</v>
+        <v>0.2519625011376062</v>
       </c>
       <c r="H12" t="s">
         <v>59</v>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="G13">
-        <v>0.2362855029629706</v>
+        <v>0.100228771449971</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -957,7 +957,7 @@
         <v>57</v>
       </c>
       <c r="G14">
-        <v>13.08405170480421</v>
+        <v>13.01215981117364</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -986,7 +986,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>8.317598354541474</v>
+        <v>8.480054693822751</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -1015,7 +1015,7 @@
         <v>57</v>
       </c>
       <c r="G16">
-        <v>7.382070019746715</v>
+        <v>7.476982114631664</v>
       </c>
       <c r="H16" t="s">
         <v>58</v>
@@ -1044,7 +1044,7 @@
         <v>57</v>
       </c>
       <c r="G17">
-        <v>7.27978505289396</v>
+        <v>7.283504847855609</v>
       </c>
       <c r="H17" t="s">
         <v>58</v>
@@ -1073,7 +1073,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>5.430038462157364</v>
+        <v>5.288466015748947</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1102,10 +1102,10 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>5.411470426993446</v>
+        <v>5.276213646677543</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1131,10 +1131,10 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.05463621270477</v>
+        <v>5.00143092683078</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -1160,7 +1160,7 @@
         <v>57</v>
       </c>
       <c r="G21">
-        <v>4.430868679986358</v>
+        <v>4.275591191179309</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
@@ -1189,7 +1189,7 @@
         <v>57</v>
       </c>
       <c r="G22">
-        <v>4.412626648038093</v>
+        <v>4.151918691359521</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -1218,7 +1218,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>3.327095999247362</v>
+        <v>3.329972696343859</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -1235,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -1247,10 +1247,10 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>2.26493513038394</v>
+        <v>2.177627561568944</v>
       </c>
       <c r="H24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -1264,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1276,10 +1276,10 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>2.202334476874346</v>
+        <v>2.103275006361129</v>
       </c>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I25">
         <v>12</v>

--- a/_static/global/rankrankings/workers_rank_re.xlsx
+++ b/_static/global/rankrankings/workers_rank_re.xlsx
@@ -46,12 +46,12 @@
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
+    <t>60a71d27a66fac796ad4de6f</t>
+  </si>
+  <si>
     <t>5f2c1a97a6809c060fec8820</t>
   </si>
   <si>
-    <t>60a71d27a66fac796ad4de6f</t>
-  </si>
-  <si>
     <t>60186dc2cc1aa8103499603a</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>60778ed0fde3e9c3a96f1d11</t>
   </si>
   <si>
+    <t>5f0142aa1eb1e528e7abce50</t>
+  </si>
+  <si>
     <t>60ba8ba51a5e0a105396888a</t>
   </si>
   <si>
-    <t>5f0142aa1eb1e528e7abce50</t>
-  </si>
-  <si>
     <t>5eeaa065c7acf61c4322f6d9</t>
   </si>
   <si>
@@ -118,12 +118,12 @@
     <t>Aalap</t>
   </si>
   <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
     <t>Maggie</t>
   </si>
   <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
     <t>Emily</t>
   </si>
   <si>
@@ -154,10 +154,10 @@
     <t>Melissa</t>
   </si>
   <si>
+    <t>Valeria</t>
+  </si>
+  <si>
     <t>Alfredo</t>
-  </si>
-  <si>
-    <t>Valeria</t>
   </si>
   <si>
     <t>Yonifredy</t>
@@ -603,7 +603,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>11.35146450363736</v>
+        <v>11.20066658138457</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -632,7 +632,7 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>10.46509312749224</v>
+        <v>10.04930818106606</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -661,7 +661,7 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>8.345780257992518</v>
+        <v>8.248826543614417</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -690,7 +690,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>8.335815743434177</v>
+        <v>8.220568487397175</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
@@ -719,7 +719,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>7.149319585641714</v>
+        <v>7.249275200471399</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -748,7 +748,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>6.428054772178267</v>
+        <v>6.455977501408833</v>
       </c>
       <c r="H7" t="s">
         <v>58</v>
@@ -777,7 +777,7 @@
         <v>57</v>
       </c>
       <c r="G8">
-        <v>6.387792560901622</v>
+        <v>6.103291068476004</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -806,7 +806,7 @@
         <v>57</v>
       </c>
       <c r="G9">
-        <v>5.358859522459975</v>
+        <v>5.414954327138534</v>
       </c>
       <c r="H9" t="s">
         <v>58</v>
@@ -835,7 +835,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>5.046880051605173</v>
+        <v>5.320316808829586</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
@@ -864,7 +864,7 @@
         <v>57</v>
       </c>
       <c r="G11">
-        <v>4.123973324417245</v>
+        <v>4.27658389358938</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -893,7 +893,7 @@
         <v>57</v>
       </c>
       <c r="G12">
-        <v>2.400210451344222</v>
+        <v>2.210786006685201</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
@@ -922,7 +922,7 @@
         <v>57</v>
       </c>
       <c r="G13">
-        <v>0.1240641252646651</v>
+        <v>0.4860780824965417</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
@@ -951,7 +951,7 @@
         <v>56</v>
       </c>
       <c r="G14">
-        <v>8.43712372573634</v>
+        <v>8.320630269032609</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -980,7 +980,7 @@
         <v>56</v>
       </c>
       <c r="G15">
-        <v>8.085171174491482</v>
+        <v>8.220999680247353</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1006,10 +1006,10 @@
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16">
-        <v>7.483015296297952</v>
+        <v>7.392521412365356</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1035,10 +1035,10 @@
         <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17">
-        <v>7.18543091573438</v>
+        <v>7.195758649836163</v>
       </c>
       <c r="H17" t="s">
         <v>59</v>
@@ -1067,7 +1067,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>6.391489871176138</v>
+        <v>6.375156838433768</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -1096,7 +1096,7 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>6.387011644639443</v>
+        <v>6.167571326566887</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -1125,7 +1125,7 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.012348235563821</v>
+        <v>5.182177952706946</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
@@ -1154,7 +1154,7 @@
         <v>56</v>
       </c>
       <c r="G21">
-        <v>3.142757349846526</v>
+        <v>3.34653025316331</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
@@ -1183,7 +1183,7 @@
         <v>56</v>
       </c>
       <c r="G22">
-        <v>3.037402404511541</v>
+        <v>3.069907791126405</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
@@ -1212,7 +1212,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>2.344227293246886</v>
+        <v>2.051855092120411</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
@@ -1241,7 +1241,7 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>1.337899327810482</v>
+        <v>1.401088072767352</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -1270,7 +1270,7 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>0.002543171126171584</v>
+        <v>0.363970251729259</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>

--- a/_static/global/rankrankings/workers_rank_re.xlsx
+++ b/_static/global/rankrankings/workers_rank_re.xlsx
@@ -58,24 +58,24 @@
     <t>60c0e5899d387663c07eb3a4</t>
   </si>
   <si>
+    <t>608b14a312c099ac00b721b6</t>
+  </si>
+  <si>
     <t>6077db0613ce87b4a62a78f9</t>
   </si>
   <si>
-    <t>608b14a312c099ac00b721b6</t>
-  </si>
-  <si>
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
     <t>60d5775a99b502eec8cf56b4</t>
   </si>
   <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
-    <t>6036f9b3b1842f8b659b18c7</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -106,12 +106,12 @@
     <t>6088fc724afd5c008db33e9d</t>
   </si>
   <si>
+    <t>6097b95056caf5ebb2720002</t>
+  </si>
+  <si>
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
-    <t>6097b95056caf5ebb2720002</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -130,24 +130,24 @@
     <t>Nansi</t>
   </si>
   <si>
+    <t>Khushi</t>
+  </si>
+  <si>
     <t>Lori</t>
   </si>
   <si>
-    <t>Khushi</t>
-  </si>
-  <si>
     <t>Bri</t>
   </si>
   <si>
+    <t>Kellie</t>
+  </si>
+  <si>
+    <t>Shaniek</t>
+  </si>
+  <si>
     <t>Shadaisia</t>
   </si>
   <si>
-    <t>Shaniek</t>
-  </si>
-  <si>
-    <t>Kellie</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
@@ -178,10 +178,10 @@
     <t>Masuf</t>
   </si>
   <si>
+    <t>Damian</t>
+  </si>
+  <si>
     <t>Eli</t>
-  </si>
-  <si>
-    <t>Damian</t>
   </si>
   <si>
     <t>female</t>
@@ -609,7 +609,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>7.326165517881154</v>
+        <v>7.066021659105897</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -638,7 +638,7 @@
         <v>56</v>
       </c>
       <c r="G3">
-        <v>6.035906762210042</v>
+        <v>6.08779256618992</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -667,7 +667,7 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>6.027117691378983</v>
+        <v>6.057214823784022</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
@@ -696,7 +696,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>5.244593786151905</v>
+        <v>5.336243183830646</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
@@ -725,7 +725,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>5.10415078822819</v>
+        <v>5.23161678505255</v>
       </c>
       <c r="H6" t="s">
         <v>60</v>
@@ -754,7 +754,7 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>4.080915110249717</v>
+        <v>4.436670416417346</v>
       </c>
       <c r="H7" t="s">
         <v>60</v>
@@ -771,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -783,10 +783,10 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>1.127328457611293</v>
+        <v>1.23052797168464</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -812,10 +812,10 @@
         <v>56</v>
       </c>
       <c r="G9">
-        <v>1.090887131911884</v>
+        <v>1.071012198534924</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -841,7 +841,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>0.434968325099591</v>
+        <v>0.2802740219446506</v>
       </c>
       <c r="H10" t="s">
         <v>59</v>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -870,10 +870,10 @@
         <v>56</v>
       </c>
       <c r="G11">
-        <v>0.2911261319324809</v>
+        <v>0.2177540011877876</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -899,7 +899,7 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>0.2519625011376062</v>
+        <v>0.2177006013509487</v>
       </c>
       <c r="H12" t="s">
         <v>59</v>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="G13">
-        <v>0.100228771449971</v>
+        <v>0.1591053476746944</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -957,7 +957,7 @@
         <v>57</v>
       </c>
       <c r="G14">
-        <v>13.01215981117364</v>
+        <v>13.29683150174694</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -986,7 +986,7 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>8.480054693822751</v>
+        <v>8.442021786703412</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -1015,7 +1015,7 @@
         <v>57</v>
       </c>
       <c r="G16">
-        <v>7.476982114631664</v>
+        <v>7.404702027677391</v>
       </c>
       <c r="H16" t="s">
         <v>58</v>
@@ -1044,7 +1044,7 @@
         <v>57</v>
       </c>
       <c r="G17">
-        <v>7.283504847855609</v>
+        <v>7.160622382233508</v>
       </c>
       <c r="H17" t="s">
         <v>58</v>
@@ -1073,7 +1073,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>5.288466015748947</v>
+        <v>5.402452916932003</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -1102,7 +1102,7 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>5.276213646677543</v>
+        <v>5.297461556733766</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -1131,7 +1131,7 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.00143092683078</v>
+        <v>5.132600155139131</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
@@ -1160,7 +1160,7 @@
         <v>57</v>
       </c>
       <c r="G21">
-        <v>4.275591191179309</v>
+        <v>4.390731964014523</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
@@ -1189,7 +1189,7 @@
         <v>57</v>
       </c>
       <c r="G22">
-        <v>4.151918691359521</v>
+        <v>4.389711251129868</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -1218,7 +1218,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>3.329972696343859</v>
+        <v>3.29245665633912</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -1235,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -1247,10 +1247,10 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>2.177627561568944</v>
+        <v>2.097423229951403</v>
       </c>
       <c r="H24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -1264,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1276,10 +1276,10 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>2.103275006361129</v>
+        <v>2.005455606839798</v>
       </c>
       <c r="H25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I25">
         <v>12</v>

--- a/_static/global/rankrankings/workers_rank_re.xlsx
+++ b/_static/global/rankrankings/workers_rank_re.xlsx
@@ -46,12 +46,12 @@
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
+    <t>5f2c1a97a6809c060fec8820</t>
+  </si>
+  <si>
     <t>60a71d27a66fac796ad4de6f</t>
   </si>
   <si>
-    <t>5f2c1a97a6809c060fec8820</t>
-  </si>
-  <si>
     <t>60186dc2cc1aa8103499603a</t>
   </si>
   <si>
@@ -76,33 +76,33 @@
     <t>60b76ee2219ac1ce25ccea43</t>
   </si>
   <si>
+    <t>6024c18b094ac71dd93f4f5a</t>
+  </si>
+  <si>
     <t>60778ed0fde3e9c3a96f1d11</t>
   </si>
   <si>
-    <t>6024c18b094ac71dd93f4f5a</t>
+    <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
     <t>60ba8ba51a5e0a105396888a</t>
   </si>
   <si>
-    <t>5f0142aa1eb1e528e7abce50</t>
+    <t>5f5ea8227fa75676f56f9276</t>
   </si>
   <si>
     <t>5eeaa065c7acf61c4322f6d9</t>
   </si>
   <si>
-    <t>5f5ea8227fa75676f56f9276</t>
-  </si>
-  <si>
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>5e706891c396cc64388ef760</t>
+  </si>
+  <si>
     <t>5e0adc8f4cac6834756db412</t>
   </si>
   <si>
-    <t>5e706891c396cc64388ef760</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
@@ -118,12 +118,12 @@
     <t>Aalap</t>
   </si>
   <si>
+    <t>Maggie</t>
+  </si>
+  <si>
     <t>Jennifer</t>
   </si>
   <si>
-    <t>Maggie</t>
-  </si>
-  <si>
     <t>Emily</t>
   </si>
   <si>
@@ -148,31 +148,31 @@
     <t>Richie</t>
   </si>
   <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t>Melissa</t>
   </si>
   <si>
-    <t>Katherine</t>
+    <t>Valeria</t>
   </si>
   <si>
     <t>Alfredo</t>
   </si>
   <si>
-    <t>Valeria</t>
+    <t>Carlos</t>
   </si>
   <si>
     <t>Yonifredy</t>
   </si>
   <si>
-    <t>Carlos</t>
-  </si>
-  <si>
     <t>Juan</t>
   </si>
   <si>
+    <t>Maria</t>
+  </si>
+  <si>
     <t>Mary</t>
-  </si>
-  <si>
-    <t>Maria</t>
   </si>
   <si>
     <t>Josue</t>
@@ -603,7 +603,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>11.27792061352761</v>
+        <v>11.36491441729315</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -632,7 +632,7 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>10.42397461606786</v>
+        <v>10.01785415257338</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -661,7 +661,7 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>8.159181886559722</v>
+        <v>8.040674606944371</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -690,7 +690,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>8.078791820834088</v>
+        <v>8.032360915298707</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
@@ -719,7 +719,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>7.341074931300875</v>
+        <v>7.393130267324382</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -748,7 +748,7 @@
         <v>57</v>
       </c>
       <c r="G7">
-        <v>6.287939568370619</v>
+        <v>6.317503956260554</v>
       </c>
       <c r="H7" t="s">
         <v>58</v>
@@ -777,7 +777,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>6.096219943567048</v>
+        <v>6.011467763540303</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -806,7 +806,7 @@
         <v>57</v>
       </c>
       <c r="G9">
-        <v>5.259119386742901</v>
+        <v>5.079227112452898</v>
       </c>
       <c r="H9" t="s">
         <v>58</v>
@@ -835,7 +835,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>5.120782393204041</v>
+        <v>5.054581671041178</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
@@ -864,7 +864,7 @@
         <v>57</v>
       </c>
       <c r="G11">
-        <v>4.094929148799656</v>
+        <v>4.380943723260605</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -893,7 +893,7 @@
         <v>57</v>
       </c>
       <c r="G12">
-        <v>2.424068321745377</v>
+        <v>2.380573180982641</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
@@ -922,7 +922,7 @@
         <v>57</v>
       </c>
       <c r="G13">
-        <v>0.0973807742849791</v>
+        <v>0.2369653110842641</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -951,7 +951,7 @@
         <v>56</v>
       </c>
       <c r="G14">
-        <v>8.154748808584117</v>
+        <v>8.051697533201137</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -980,7 +980,7 @@
         <v>56</v>
       </c>
       <c r="G15">
-        <v>8.100607705124663</v>
+        <v>8.049345038247747</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1006,10 +1006,10 @@
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16">
-        <v>7.239291597438801</v>
+        <v>7.172380869265427</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1035,10 +1035,10 @@
         <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17">
-        <v>7.044986533518719</v>
+        <v>7.084258182079134</v>
       </c>
       <c r="H17" t="s">
         <v>59</v>
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1067,7 +1067,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>6.23862135191075</v>
+        <v>6.251133082574972</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -1084,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1096,7 +1096,7 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>6.137405355585987</v>
+        <v>6.228542514609791</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -1125,7 +1125,7 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>5.222678281883093</v>
+        <v>5.257951082805501</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1154,7 +1154,7 @@
         <v>56</v>
       </c>
       <c r="G21">
-        <v>3.331595170345159</v>
+        <v>3.374220793453376</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
@@ -1171,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1183,7 +1183,7 @@
         <v>56</v>
       </c>
       <c r="G22">
-        <v>3.01569320294723</v>
+        <v>3.30059129783378</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
@@ -1212,7 +1212,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>2.45260590871501</v>
+        <v>2.445237386649406</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
@@ -1241,7 +1241,7 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>1.21262315450399</v>
+        <v>1.109097411672669</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -1270,7 +1270,7 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>0.1284503043741946</v>
+        <v>0.3238469706846104</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>
